--- a/myCBD/myInfo/Age Group and Standard US 2000 population.xlsx
+++ b/myCBD/myInfo/Age Group and Standard US 2000 population.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>US200POP</t>
   </si>
@@ -32,15 +32,29 @@
   <si>
     <t>uAge</t>
   </si>
+  <si>
+    <t>note: Under 1 year and 1-4 years combined</t>
+  </si>
+  <si>
+    <t>https://www26.state.nj.us/doh-shad/sharedstatic/AgeAdjustedDeathRate.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +77,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,13 +389,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A12" sqref="A12:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -393,98 +416,109 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>47165</v>
+        <v>18987</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>31619</v>
+        <v>39977</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>35979</v>
+        <v>38077</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>41691</v>
+        <v>37233</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>42285</v>
+        <v>44659</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C7">
-        <v>30531</v>
+        <v>37030</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C8">
-        <v>20064</v>
+        <v>23961</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C9">
-        <v>16141</v>
+        <v>18136</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B10">
+        <v>84</v>
+      </c>
+      <c r="C10">
+        <v>12315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>85</v>
+      </c>
+      <c r="B11">
         <v>999</v>
       </c>
-      <c r="C10">
-        <v>9159</v>
+      <c r="C11">
+        <v>4259</v>
       </c>
     </row>
   </sheetData>
@@ -494,29 +528,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>15192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>SUM(B6:B7)</f>
+        <v>18987</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
